--- a/feedback_options.xlsx
+++ b/feedback_options.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gogo/Documents/pyFeedback/excelGenerate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gogo/Documents/pyFeedback/excelGenerate/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086B4D7D-A20F-F747-9D23-EF94DAF9C87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65E499C-D4B1-C94F-8B6F-11722B018767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-21000" windowWidth="30240" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GoodFeedback" sheetId="1" r:id="rId1"/>
@@ -26,52 +26,52 @@
     <t>Feedback</t>
   </si>
   <si>
-    <t>🌟 实际操作出色：你能够有效应用所学知识解决问题，很棒的实践能力。</t>
-  </si>
-  <si>
-    <t>🤝 优秀的团队精神：你的交流和分享习惯对团队学习很有贡献。</t>
-  </si>
-  <si>
-    <t>🔍 积极拓展：你主动挑战新的难题和练习，展示了显著的技能提升，继续保持这种努力！</t>
-  </si>
-  <si>
     <t>🏆 课上专注：未使用手机的自律性值得肯定。</t>
   </si>
   <si>
-    <t>🗣️ 积极回答问题：这种参与意识是非常可贵的，希望你能继续发扬这种精神。</t>
-  </si>
-  <si>
-    <t>⏰ 及时提交：你总是能够及时提交复习记录，这非常有助于管理学习进度，做得很好！</t>
-  </si>
-  <si>
-    <t>💡 作业参与度高：作业完成执行力高，积极参与讨论，保持这种热情。</t>
-  </si>
-  <si>
     <t>📈 作业正确率：作业的高正确率显示了你的努力和理解能力。</t>
   </si>
   <si>
-    <t>⚠️ 加强理论应用：需要更多地将理论知识应用到实际问题中，以提高解决问题的实践能力。</t>
-  </si>
-  <si>
-    <t>⚠️ 增强团队互动：应更积极地参与团队讨论和分享，这将有助于提升团队协作和学习效果。</t>
-  </si>
-  <si>
-    <t>⚠️ 持续和系统的实践：需要有更系统的实操练习，以便更好地掌握技能和知识。</t>
-  </si>
-  <si>
     <t>⚠️ 课上专注：请在课堂上保持专注，避免使用手机分心。</t>
   </si>
   <si>
     <t>⚠️ 回答问题：看到你在课堂上比较沉默，我希望你能主动发言。积极回答问题有助于加深对知识的理解，也能让课堂氛围更加活跃。</t>
   </si>
   <si>
-    <t>🔔 改进复习记录的提交：应保持复习记录的及时性，这不仅帮助自我复习也便于及时得到教师反馈。</t>
-  </si>
-  <si>
-    <t>🔔 提升作业质量和参与度：虽然作业完成了，但可以更加深入地探索问题，并主动寻求反馈和帮助。</t>
-  </si>
-  <si>
-    <t>📉 作业正确率：作业的正确率有待提高，让我们一起找出问题所在。</t>
+    <t>⏰ 及时提交：你总是能够及时提交作业，这非常有助于管理学习进度，做得很好！</t>
+  </si>
+  <si>
+    <t>🔍 积极拓展：你主动挑战新的难题和练习，积极搜索额外知识来提升技能，棒！</t>
+  </si>
+  <si>
+    <t>🌟 实际操作出色：本周展现了很棒的实践能力，有效应用所学知识解决问题。</t>
+  </si>
+  <si>
+    <t>🗣️ 积极回答问题：上课善于表达和分享技术观点，继续发扬！</t>
+  </si>
+  <si>
+    <t>🤝 优秀的团队精神：你的交流和分享习惯对团队学习很有贡献，非常可贵！</t>
+  </si>
+  <si>
+    <t>💡 作业参与度高：执行力高，课上积极参与讨论，课下认真完成作业，保持这种热情。</t>
+  </si>
+  <si>
+    <t>⚠️ 加强理论应用：需要投入更多精力在课堂实践中，提高解决问题的实践能力。</t>
+  </si>
+  <si>
+    <t>⚠️ 增强团队互动：尝试更积极地参与团队讨论和分享，看好你更多的团队协作和更长远的学习效果。</t>
+  </si>
+  <si>
+    <t>🔔 改进作业提交时间：注意作业提交的及时性，这不仅帮助自我复习也便于及时得到教师反馈。</t>
+  </si>
+  <si>
+    <t>⚠️ 持续和系统的实践：需要有更系统的实操练习，有意识地查漏补缺，以便更好地掌握技能和知识。</t>
+  </si>
+  <si>
+    <t>🔔 提升作业参与度：虽然作业完成了，但可以更加深入探索难题，尝试主动寻求反馈和帮助，</t>
+  </si>
+  <si>
+    <t>📉 作业正确率：作业的正确率有待提高，尝试和同学们讨论，来 OH我们一起找出问题所在。精益求精。</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -453,42 +453,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -516,32 +516,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
